--- a/Exercise summary.xlsx
+++ b/Exercise summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\git\Learn-Python-the-Hard-Way\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F438AAAB-794F-426D-97B8-DBC2B9796158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3525A4E-0EF4-4B1D-8B82-E5982D2FC1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5475" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{170A0574-5388-42CB-AC8D-D0BBEBF8E46A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{170A0574-5388-42CB-AC8D-D0BBEBF8E46A}"/>
   </bookViews>
   <sheets>
     <sheet name="Command line" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>Command line cheats</t>
   </si>
@@ -249,6 +249,39 @@
   </si>
   <si>
     <t>github</t>
+  </si>
+  <si>
+    <t>practice inc. functions</t>
+  </si>
+  <si>
+    <t>test - correcting code</t>
+  </si>
+  <si>
+    <t>logic Bool</t>
+  </si>
+  <si>
+    <t>Bool practice</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>elif</t>
+  </si>
+  <si>
+    <t>if, elif, else</t>
+  </si>
+  <si>
+    <t>for-loop</t>
+  </si>
+  <si>
+    <t>while-loop</t>
+  </si>
+  <si>
+    <t>lists</t>
+  </si>
+  <si>
+    <t>branches and functions</t>
   </si>
 </sst>
 </file>
@@ -310,13 +343,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,7 +831,7 @@
   <dimension ref="C2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,10 +945,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13672A06-5C85-4173-964C-F01A0FC6BAB8}">
-  <dimension ref="B2:D24"/>
+  <dimension ref="B2:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,12 +1106,120 @@
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="5">
+      <c r="B24" s="7">
         <v>22</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>23</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>73</v>
       </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="6">
+        <v>24</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="6">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="8">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="6">
+        <v>27</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="6">
+        <v>28</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="6">
+        <v>29</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="6">
+        <v>30</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="6">
+        <v>31</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="6">
+        <v>32</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="6">
+        <v>33</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="6">
+        <v>34</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="6">
+        <v>35</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="8">
+        <v>36</v>
+      </c>
+      <c r="C38" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Exercise summary.xlsx
+++ b/Exercise summary.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\git\Learn-Python-the-Hard-Way\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3525A4E-0EF4-4B1D-8B82-E5982D2FC1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB68152-4BD7-4169-AD9E-A44304862565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{170A0574-5388-42CB-AC8D-D0BBEBF8E46A}"/>
+    <workbookView xWindow="28680" yWindow="-8040" windowWidth="29040" windowHeight="15840" xr2:uid="{170A0574-5388-42CB-AC8D-D0BBEBF8E46A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Command line" sheetId="1" r:id="rId1"/>
+    <sheet name="Learn Python the hard way" sheetId="2" r:id="rId1"/>
     <sheet name="Python escapes" sheetId="3" r:id="rId2"/>
-    <sheet name="Learn Python the hard way" sheetId="2" r:id="rId3"/>
+    <sheet name="Python Keywords" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,103 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
-  <si>
-    <t>Command line cheats</t>
-  </si>
-  <si>
-    <t>pwd</t>
-  </si>
-  <si>
-    <t>display path of current working directory</t>
-  </si>
-  <si>
-    <t>Directory</t>
-  </si>
-  <si>
-    <t>cd &lt;directory&gt;</t>
-  </si>
-  <si>
-    <t>change directory to &lt;directory&gt;</t>
-  </si>
-  <si>
-    <t>cd ..</t>
-  </si>
-  <si>
-    <t>navigate to parent directory</t>
-  </si>
-  <si>
-    <t>dir</t>
-  </si>
-  <si>
-    <t>ls</t>
-  </si>
-  <si>
-    <t>list directory contents</t>
-  </si>
-  <si>
-    <t>ls -la</t>
-  </si>
-  <si>
-    <t>list detailed directory content, including hidden files</t>
-  </si>
-  <si>
-    <t>mkdir &lt;directory&gt;</t>
-  </si>
-  <si>
-    <t>create new directory named &lt;directory&gt;</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>cat &lt;file&gt;</t>
-  </si>
-  <si>
-    <t>output the contents of &lt;file&gt;</t>
-  </si>
-  <si>
-    <t>head &lt;file&gt;</t>
-  </si>
-  <si>
-    <t>output the first 10 lines of &lt;file&gt;</t>
-  </si>
-  <si>
-    <t>Files</t>
-  </si>
-  <si>
-    <t>rm &lt;file&gt;</t>
-  </si>
-  <si>
-    <t>delete &lt;file&gt;</t>
-  </si>
-  <si>
-    <t>mv &lt;file_old&gt; &lt;file_new&gt;</t>
-  </si>
-  <si>
-    <t>rename &lt;file_old&gt; to &lt;file_new&gt;</t>
-  </si>
-  <si>
-    <t>mv &lt;file&gt; &lt;directory&gt;</t>
-  </si>
-  <si>
-    <t>move &lt;file&gt; to &lt;directory&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cp &lt;file&gt; &lt;directory&gt; </t>
-  </si>
-  <si>
-    <t>copy &lt;file&gt; to &lt;directory&gt;</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>find &lt;file&gt; -name "&lt;file&gt;"</t>
-  </si>
-  <si>
-    <t>find all files named &lt;file&gt; inside dir</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="219">
   <si>
     <t>Ex</t>
   </si>
@@ -282,13 +186,511 @@
   </si>
   <si>
     <t>branches and functions</t>
+  </si>
+  <si>
+    <t>write your own game</t>
+  </si>
+  <si>
+    <t>python symbols and keywords</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>both right and left operand</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>unset a variable name or remove index from dictionary</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>used together with import to import specific module</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>assert</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>yield</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>except</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>exec</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>raise</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>Data types</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>strings</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>floats</t>
+  </si>
+  <si>
+    <t>\f</t>
+  </si>
+  <si>
+    <t>String formats</t>
+  </si>
+  <si>
+    <t>Operators</t>
+  </si>
+  <si>
+    <t>%d</t>
+  </si>
+  <si>
+    <t>%i</t>
+  </si>
+  <si>
+    <t>%o</t>
+  </si>
+  <si>
+    <t>%u</t>
+  </si>
+  <si>
+    <t>%x</t>
+  </si>
+  <si>
+    <t>%X</t>
+  </si>
+  <si>
+    <t>%e</t>
+  </si>
+  <si>
+    <t>%E</t>
+  </si>
+  <si>
+    <t>%f</t>
+  </si>
+  <si>
+    <t>%F</t>
+  </si>
+  <si>
+    <t>%g</t>
+  </si>
+  <si>
+    <t>%G</t>
+  </si>
+  <si>
+    <t>%c</t>
+  </si>
+  <si>
+    <t>%r</t>
+  </si>
+  <si>
+    <t>%s</t>
+  </si>
+  <si>
+    <t>%%</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>( )</t>
+  </si>
+  <si>
+    <t>[ ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ } </t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>+=</t>
+  </si>
+  <si>
+    <t>-=</t>
+  </si>
+  <si>
+    <t>*=</t>
+  </si>
+  <si>
+    <t>/=</t>
+  </si>
+  <si>
+    <t>//=</t>
+  </si>
+  <si>
+    <t>%=</t>
+  </si>
+  <si>
+    <t>**=</t>
+  </si>
+  <si>
+    <t>dictionaries</t>
+  </si>
+  <si>
+    <t>opposite Bool value</t>
+  </si>
+  <si>
+    <t>while condition is true, while loop</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>alias for imported modules</t>
+  </si>
+  <si>
+    <t>life if but after if statement</t>
+  </si>
+  <si>
+    <t>global scope variable</t>
+  </si>
+  <si>
+    <t>either right or left operand</t>
+  </si>
+  <si>
+    <t>files are cleaned up after using</t>
+  </si>
+  <si>
+    <t>assertion statements return an error if not true</t>
+  </si>
+  <si>
+    <t>execute if if statement false</t>
+  </si>
+  <si>
+    <t>if true execute</t>
+  </si>
+  <si>
+    <t>defining block with no code yet</t>
+  </si>
+  <si>
+    <t>creates a generator from a function (eg for loop is a generator)</t>
+  </si>
+  <si>
+    <t>exit a loop early</t>
+  </si>
+  <si>
+    <t>used with try</t>
+  </si>
+  <si>
+    <t>try, except, raises an exception (except if certain error occurs)</t>
+  </si>
+  <si>
+    <t>import a module</t>
+  </si>
+  <si>
+    <t>to define a class</t>
+  </si>
+  <si>
+    <t>print to console (no longer a keyword, now a function)</t>
+  </si>
+  <si>
+    <t>executes a program</t>
+  </si>
+  <si>
+    <t>returns true/false if inside container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raises an exception </t>
+  </si>
+  <si>
+    <t>skip to the next loop iteration</t>
+  </si>
+  <si>
+    <t>part of a try block, return no matter what</t>
+  </si>
+  <si>
+    <t>identity check (like == but checks if they are the same object in memory)</t>
+  </si>
+  <si>
+    <t>used with def, exit function and pass result</t>
+  </si>
+  <si>
+    <t>define a function</t>
+  </si>
+  <si>
+    <t>for, in. for loop</t>
+  </si>
+  <si>
+    <t>define a lambda</t>
+  </si>
+  <si>
+    <t>whole number</t>
+  </si>
+  <si>
+    <t>floating-point</t>
+  </si>
+  <si>
+    <t>null object. Function that don't return a value</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>list of objects in ordered collection</t>
+  </si>
+  <si>
+    <t>collection of characters between quotes</t>
+  </si>
+  <si>
+    <t>% character in result</t>
+  </si>
+  <si>
+    <t>string (converts using repr())</t>
+  </si>
+  <si>
+    <t>string (converts using str())</t>
+  </si>
+  <si>
+    <t>single character</t>
+  </si>
+  <si>
+    <t>floating point format</t>
+  </si>
+  <si>
+    <t>floating point decimal</t>
+  </si>
+  <si>
+    <t>floating point exponential</t>
+  </si>
+  <si>
+    <t>signed hexadecimal</t>
+  </si>
+  <si>
+    <t>obsolete</t>
+  </si>
+  <si>
+    <t>signed octal value</t>
+  </si>
+  <si>
+    <t>signed integer decimal</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>subtraction</t>
+  </si>
+  <si>
+    <t>multiplication</t>
+  </si>
+  <si>
+    <t>exponentiation</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>floor division (removes fraction)</t>
+  </si>
+  <si>
+    <t>modulus</t>
+  </si>
+  <si>
+    <t>less than</t>
+  </si>
+  <si>
+    <t>more than</t>
+  </si>
+  <si>
+    <t>less than or equal to</t>
+  </si>
+  <si>
+    <t>more than or equal to</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>not equal</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>dictionary</t>
+  </si>
+  <si>
+    <t>decorator (takes a function adjusts and returns it)</t>
+  </si>
+  <si>
+    <t>lists, tuples</t>
+  </si>
+  <si>
+    <t>slices, functions</t>
+  </si>
+  <si>
+    <t>function of that object</t>
+  </si>
+  <si>
+    <t>setting variable</t>
+  </si>
+  <si>
+    <t>separation (multiple statements on the same line)</t>
+  </si>
+  <si>
+    <t>add the number to the variable and sets as new variable</t>
+  </si>
+  <si>
+    <t>subtracts the number to the variable and sets as new variable</t>
+  </si>
+  <si>
+    <t>multiplies the number to the variable and sets as new variable</t>
+  </si>
+  <si>
+    <t>divides the number to the variable and sets as new variable</t>
+  </si>
+  <si>
+    <t>floor divides the number to the variable and sets as new variable</t>
+  </si>
+  <si>
+    <t>modulus the number to the variable and sets as new variable</t>
+  </si>
+  <si>
+    <t>exponentiates the number to the variable and sets as new variable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,22 +706,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -346,13 +745,13 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,275 +1065,430 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF679B6-39D2-4449-B354-659B827C8343}">
-  <dimension ref="B2:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13672A06-5C85-4173-964C-F01A0FC6BAB8}">
+  <dimension ref="B2:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>1</v>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="6">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C25" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="C26" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="C28" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
         <v>27</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C29" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+      <c r="C30" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="C31" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="5">
         <v>30</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C32" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="5">
         <v>31</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="5">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="5">
+        <v>33</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="5">
+        <v>34</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="5">
+        <v>35</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="7">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="5">
+        <v>37</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="5">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA6CC90-440F-4C3D-931C-3203A5A228D3}">
-  <dimension ref="C2:E11"/>
+  <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -944,284 +1498,597 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13672A06-5C85-4173-964C-F01A0FC6BAB8}">
-  <dimension ref="B2:D38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137C846E-4B2E-46CB-9752-0CD93D82A34A}">
+  <dimension ref="B2:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>2</v>
+        <v>57</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" t="s">
+        <v>189</v>
+      </c>
+      <c r="T3" t="s">
+        <v>113</v>
+      </c>
+      <c r="U3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" t="s">
+        <v>176</v>
+      </c>
+      <c r="O4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" t="s">
+        <v>189</v>
+      </c>
+      <c r="T4" t="s">
+        <v>114</v>
+      </c>
+      <c r="U4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" t="s">
+        <v>188</v>
+      </c>
+      <c r="T5" t="s">
+        <v>115</v>
+      </c>
+      <c r="U5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>6</v>
+        <v>144</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" t="s">
+        <v>178</v>
+      </c>
+      <c r="O6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P6" t="s">
+        <v>187</v>
+      </c>
+      <c r="T6" t="s">
+        <v>116</v>
+      </c>
+      <c r="U6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>173</v>
+      </c>
+      <c r="O7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" t="s">
+        <v>186</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="U7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>10</v>
+        <v>147</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>174</v>
+      </c>
+      <c r="O8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" t="s">
+        <v>186</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="U8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" t="s">
+        <v>185</v>
+      </c>
+      <c r="T9" t="s">
+        <v>119</v>
+      </c>
+      <c r="U9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" t="s">
+        <v>185</v>
+      </c>
+      <c r="T10" t="s">
+        <v>120</v>
+      </c>
+      <c r="U10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+      <c r="O11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" t="s">
+        <v>184</v>
+      </c>
+      <c r="T11" t="s">
+        <v>121</v>
+      </c>
+      <c r="U11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>11</v>
+        <v>151</v>
+      </c>
+      <c r="O12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" t="s">
+        <v>184</v>
+      </c>
+      <c r="T12" t="s">
+        <v>122</v>
+      </c>
+      <c r="U12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>13</v>
+        <v>152</v>
+      </c>
+      <c r="O13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" t="s">
+        <v>183</v>
+      </c>
+      <c r="T13" t="s">
+        <v>123</v>
+      </c>
+      <c r="U13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" t="s">
+        <v>183</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>15</v>
+        <v>154</v>
+      </c>
+      <c r="O15" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" t="s">
+        <v>182</v>
+      </c>
+      <c r="T15" t="s">
+        <v>125</v>
+      </c>
+      <c r="U15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" t="s">
+        <v>180</v>
+      </c>
+      <c r="T16" t="s">
+        <v>126</v>
+      </c>
+      <c r="U16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>18</v>
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" t="s">
+        <v>181</v>
+      </c>
+      <c r="T17" t="s">
+        <v>127</v>
+      </c>
+      <c r="U17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" t="s">
+        <v>179</v>
+      </c>
+      <c r="T18" t="s">
+        <v>128</v>
+      </c>
+      <c r="U18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>158</v>
+      </c>
+      <c r="T19" t="s">
+        <v>129</v>
+      </c>
+      <c r="U19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>20</v>
+        <v>160</v>
+      </c>
+      <c r="T20" t="s">
+        <v>130</v>
+      </c>
+      <c r="U20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+      <c r="T21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>21</v>
+        <v>161</v>
+      </c>
+      <c r="T22" t="s">
+        <v>132</v>
+      </c>
+      <c r="U22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="7">
-        <v>22</v>
-      </c>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="7">
-        <v>23</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="6">
-        <v>24</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="6">
-        <v>25</v>
+        <v>163</v>
+      </c>
+      <c r="T23" t="s">
+        <v>133</v>
+      </c>
+      <c r="U23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>164</v>
+      </c>
+      <c r="T24" t="s">
+        <v>134</v>
+      </c>
+      <c r="U24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
+      <c r="T25" t="s">
+        <v>135</v>
+      </c>
+      <c r="U25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>166</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="U26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="8">
-        <v>26</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="6">
-        <v>27</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="6">
-        <v>28</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="6">
-        <v>29</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="6">
-        <v>30</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>79</v>
+        <v>167</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>168</v>
+      </c>
+      <c r="T28" t="s">
+        <v>138</v>
+      </c>
+      <c r="U28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="U29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="U30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>171</v>
+      </c>
+      <c r="T31" t="s">
+        <v>141</v>
+      </c>
+      <c r="U31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="T32" t="s">
+        <v>142</v>
+      </c>
+      <c r="U32" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="6">
-        <v>31</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="6">
-        <v>32</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="6">
-        <v>33</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="6">
-        <v>34</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="6">
-        <v>35</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="8">
-        <v>36</v>
-      </c>
-      <c r="C38" s="5"/>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Exercise summary.xlsx
+++ b/Exercise summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\git\Learn-Python-the-Hard-Way\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB68152-4BD7-4169-AD9E-A44304862565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64C8450-CC3C-447A-9B05-42DF4A8C5E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8040" windowWidth="29040" windowHeight="15840" xr2:uid="{170A0574-5388-42CB-AC8D-D0BBEBF8E46A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{170A0574-5388-42CB-AC8D-D0BBEBF8E46A}"/>
   </bookViews>
   <sheets>
     <sheet name="Learn Python the hard way" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="223">
   <si>
     <t>Ex</t>
   </si>
@@ -684,6 +684,18 @@
   </si>
   <si>
     <t>exponentiates the number to the variable and sets as new variable</t>
+  </si>
+  <si>
+    <t>modules, class and objects</t>
+  </si>
+  <si>
+    <t>OOP</t>
+  </si>
+  <si>
+    <t>analysis and design</t>
+  </si>
+  <si>
+    <t>inheritance and compostion</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13672A06-5C85-4173-964C-F01A0FC6BAB8}">
-  <dimension ref="B2:D41"/>
+  <dimension ref="B2:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,6 +1378,78 @@
       </c>
       <c r="C41" s="5" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
